--- a/zstok.XLSX
+++ b/zstok.XLSX
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://konicaminoltaglobal.sharepoint.com/teams/teste997/Shared Documents/Desktop/Py/Pendencias/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_EF5A3D36FD36ECA546AD1F5E0247A81C06039447" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE115BDA-CEE9-4A68-8105-E2CA295DB9D6}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_E175664A7C186AE976AD1ADE0828885F0403B3A3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2EF69B5-22C6-4DA7-ABAC-D4DEDEC67583}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1560" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,198 +20,303 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="229">
   <si>
     <t>Produto Coml-Peça-SPO/MAO</t>
   </si>
   <si>
-    <t>4030520401</t>
-  </si>
-  <si>
-    <t>SELO</t>
+    <t>25AA42570</t>
+  </si>
+  <si>
+    <t>POLIA DO CABO</t>
   </si>
   <si>
     <t>PÇ</t>
   </si>
   <si>
+    <t>CE09</t>
+  </si>
+  <si>
+    <t>DEP3</t>
+  </si>
+  <si>
+    <t>G32</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CE11</t>
+  </si>
+  <si>
+    <t>G365</t>
+  </si>
+  <si>
+    <t>55VB83042</t>
+  </si>
+  <si>
+    <t>LÂMPADA DE FUSÃO 3</t>
+  </si>
+  <si>
     <t>CE07</t>
   </si>
   <si>
     <t>DEP9</t>
   </si>
   <si>
-    <t>R04D06</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>CE11</t>
-  </si>
-  <si>
-    <t>DEP3</t>
-  </si>
-  <si>
-    <t>PF/2</t>
+    <t>R04F05</t>
+  </si>
+  <si>
+    <t>KP03</t>
   </si>
   <si>
     <t>CE13</t>
   </si>
   <si>
-    <t>02-02-32</t>
-  </si>
-  <si>
-    <t>9314230021</t>
+    <t>06-01-35</t>
+  </si>
+  <si>
+    <t>56UA12570</t>
+  </si>
+  <si>
+    <t>ALÇA</t>
+  </si>
+  <si>
+    <t>CE01</t>
+  </si>
+  <si>
+    <t>R03A05</t>
+  </si>
+  <si>
+    <t>G134</t>
+  </si>
+  <si>
+    <t>PR-02 C</t>
+  </si>
+  <si>
+    <t>56UA77260</t>
+  </si>
+  <si>
+    <t>ENGRENAGEM 48 DENTES</t>
+  </si>
+  <si>
+    <t>G100</t>
+  </si>
+  <si>
+    <t>56UA78090</t>
+  </si>
+  <si>
+    <t>CORREIA A 192L</t>
+  </si>
+  <si>
+    <t>GAV - 662</t>
+  </si>
+  <si>
+    <t>G301</t>
+  </si>
+  <si>
+    <t>56UAR73900</t>
+  </si>
+  <si>
+    <t>CONJUNTO DE ENGRENAGEM</t>
+  </si>
+  <si>
+    <t>G99</t>
+  </si>
+  <si>
+    <t>65AA26111</t>
+  </si>
+  <si>
+    <t>ROLO DE TRANSFERÊNCIA INFERIOR</t>
+  </si>
+  <si>
+    <t>DEP5</t>
+  </si>
+  <si>
+    <t>R04C03</t>
+  </si>
+  <si>
+    <t>KP07</t>
+  </si>
+  <si>
+    <t>03-16-1-2</t>
+  </si>
+  <si>
+    <t>65AA77730</t>
+  </si>
+  <si>
+    <t>ENGRENAGEM 2</t>
+  </si>
+  <si>
+    <t>GAV-343</t>
+  </si>
+  <si>
+    <t>65AA80112</t>
   </si>
   <si>
     <t>MOTOR</t>
   </si>
   <si>
-    <t>20AA15140</t>
-  </si>
-  <si>
-    <t>CABO DE AÇO</t>
+    <t>R03J06</t>
+  </si>
+  <si>
+    <t>9J06M20000</t>
+  </si>
+  <si>
+    <t>SOLENÓIDE</t>
+  </si>
+  <si>
+    <t>GAV. 737</t>
+  </si>
+  <si>
+    <t>G74</t>
+  </si>
+  <si>
+    <t>02-01-32</t>
+  </si>
+  <si>
+    <t>A00J563600</t>
+  </si>
+  <si>
+    <t>ROLO</t>
   </si>
   <si>
     <t>CE05</t>
   </si>
   <si>
-    <t>9.V.017.4E</t>
-  </si>
-  <si>
-    <t>DEP5</t>
-  </si>
-  <si>
-    <t>GAV-174</t>
-  </si>
-  <si>
-    <t>CE09</t>
-  </si>
-  <si>
-    <t>G33</t>
-  </si>
-  <si>
-    <t>PR-05 C</t>
-  </si>
-  <si>
-    <t>26NA32870</t>
-  </si>
-  <si>
-    <t>MOLA DE PRESSÃO 2</t>
-  </si>
-  <si>
-    <t>G880</t>
-  </si>
-  <si>
-    <t>50BA40220</t>
-  </si>
-  <si>
-    <t>ROLO</t>
-  </si>
-  <si>
-    <t>GAV-310</t>
-  </si>
-  <si>
-    <t>56UA75070</t>
-  </si>
-  <si>
-    <t>ROLAMENTO DE ROLETE</t>
-  </si>
-  <si>
-    <t>9.T.001.1</t>
-  </si>
-  <si>
-    <t>GAV-394</t>
-  </si>
-  <si>
-    <t>G14</t>
-  </si>
-  <si>
-    <t>01-01-33</t>
-  </si>
-  <si>
-    <t>56UA78030</t>
-  </si>
-  <si>
-    <t>CORREIA 534 L</t>
-  </si>
-  <si>
-    <t>CE01</t>
-  </si>
-  <si>
-    <t>GAV-879</t>
-  </si>
-  <si>
-    <t>65AA50320</t>
-  </si>
-  <si>
-    <t>CAME</t>
-  </si>
-  <si>
-    <t>GAV-702</t>
-  </si>
-  <si>
-    <t>G18</t>
-  </si>
-  <si>
-    <t>65AA53651</t>
-  </si>
-  <si>
-    <t>LIMITADOR</t>
-  </si>
-  <si>
-    <t>GAV-103</t>
-  </si>
-  <si>
-    <t>65AA77380</t>
-  </si>
-  <si>
-    <t>ENGRENAGEM</t>
-  </si>
-  <si>
-    <t>9.V.015.4A</t>
-  </si>
-  <si>
-    <t>G81</t>
-  </si>
-  <si>
-    <t>G738</t>
-  </si>
-  <si>
-    <t>PR-10 D</t>
-  </si>
-  <si>
-    <t>A03TM50000</t>
-  </si>
-  <si>
-    <t>FOTO REFLETOR</t>
-  </si>
-  <si>
-    <t>GAV 166</t>
-  </si>
-  <si>
-    <t>G194</t>
+    <t>1.H.056.1</t>
+  </si>
+  <si>
+    <t>R03J03</t>
+  </si>
+  <si>
+    <t>PA/2</t>
+  </si>
+  <si>
+    <t>02-08-1-1</t>
+  </si>
+  <si>
+    <t>A03U720100</t>
+  </si>
+  <si>
+    <t>ROLO DE FUSÃO /1</t>
+  </si>
+  <si>
+    <t>A03U720201</t>
+  </si>
+  <si>
+    <t>ROLO DA FUSÃO /2</t>
+  </si>
+  <si>
+    <t>9.S.005.5</t>
+  </si>
+  <si>
+    <t>R04F03</t>
+  </si>
+  <si>
+    <t>P20-6</t>
+  </si>
+  <si>
+    <t>A03U808201</t>
+  </si>
+  <si>
+    <t>ENGRENAGEM 28D</t>
+  </si>
+  <si>
+    <t>GAV-304</t>
+  </si>
+  <si>
+    <t>A03U861002</t>
+  </si>
+  <si>
+    <t>DESVIADOR</t>
+  </si>
+  <si>
+    <t>R04A04</t>
+  </si>
+  <si>
+    <t>DP13</t>
+  </si>
+  <si>
+    <t>KP21</t>
+  </si>
+  <si>
+    <t>06-01-54</t>
+  </si>
+  <si>
+    <t>A0G6531401</t>
+  </si>
+  <si>
+    <t>ENGRENAGEM 1 41/47 DENTES</t>
+  </si>
+  <si>
+    <t>GAV - 65</t>
+  </si>
+  <si>
+    <t>CE03</t>
+  </si>
+  <si>
+    <t>G108</t>
+  </si>
+  <si>
+    <t>G241</t>
+  </si>
+  <si>
+    <t>PR-08 D</t>
+  </si>
+  <si>
+    <t>A0G6714200</t>
+  </si>
+  <si>
+    <t>ENGRENAGEM 18 DENTES</t>
+  </si>
+  <si>
+    <t>GAV-234</t>
+  </si>
+  <si>
+    <t>G47</t>
+  </si>
+  <si>
+    <t>G184</t>
   </si>
   <si>
     <t>01-02-35</t>
   </si>
   <si>
-    <t>A03U808700</t>
-  </si>
-  <si>
-    <t>ENGRENAGEM /G 45 DENTES</t>
-  </si>
-  <si>
-    <t>GAV - 575</t>
-  </si>
-  <si>
-    <t>A03U808811</t>
-  </si>
-  <si>
-    <t>ENGRENAGEM /H 35 DENTES</t>
-  </si>
-  <si>
-    <t>GAV - 134</t>
+    <t>A0VDR72555</t>
+  </si>
+  <si>
+    <t>CONJUNTO DO CASSETE</t>
+  </si>
+  <si>
+    <t>A161M20101</t>
+  </si>
+  <si>
+    <t>EMBREAGEM</t>
+  </si>
+  <si>
+    <t>GAV-90</t>
+  </si>
+  <si>
+    <t>A1DU808600</t>
+  </si>
+  <si>
+    <t>ENGRENAGEM 20/29T</t>
+  </si>
+  <si>
+    <t>GAV-59</t>
+  </si>
+  <si>
+    <t>G25</t>
+  </si>
+  <si>
+    <t>A1DUR71300</t>
+  </si>
+  <si>
+    <t>UNIDADE DE CARGA</t>
+  </si>
+  <si>
+    <t>01-08-1-1</t>
   </si>
   <si>
     <t>22</t>
@@ -220,277 +325,142 @@
     <t>Descont. perm. venda</t>
   </si>
   <si>
-    <t>A03U838900</t>
-  </si>
-  <si>
-    <t>ENGRENAGEM 24 D</t>
-  </si>
-  <si>
-    <t>G98</t>
-  </si>
-  <si>
-    <t>A03U861002</t>
-  </si>
-  <si>
-    <t>DESVIADOR</t>
-  </si>
-  <si>
-    <t>R04A04</t>
-  </si>
-  <si>
-    <t>DP13</t>
-  </si>
-  <si>
-    <t>KP21</t>
-  </si>
-  <si>
-    <t>06-01-54</t>
-  </si>
-  <si>
-    <t>A03UM32E00</t>
-  </si>
-  <si>
-    <t>LÂMPADA DE FUSÃO INFERIOR</t>
-  </si>
-  <si>
-    <t>R03G05</t>
-  </si>
-  <si>
-    <t>KP03</t>
-  </si>
-  <si>
-    <t>05-02-43</t>
-  </si>
-  <si>
-    <t>A0GDR72300</t>
-  </si>
-  <si>
-    <t>CONJUNTO LIMITADOR</t>
-  </si>
-  <si>
-    <t>A0HR223700</t>
-  </si>
-  <si>
-    <t>CORREIA DE SINCRONISMO</t>
-  </si>
-  <si>
-    <t>G1064</t>
-  </si>
-  <si>
-    <t>A1RF120600</t>
-  </si>
-  <si>
-    <t>9.X.007.4F</t>
-  </si>
-  <si>
-    <t>G698</t>
-  </si>
-  <si>
-    <t>A1RF121700</t>
-  </si>
-  <si>
-    <t>SELO /1</t>
-  </si>
-  <si>
-    <t>G785</t>
-  </si>
-  <si>
-    <t>A1RF121900</t>
-  </si>
-  <si>
-    <t>SELO /2</t>
-  </si>
-  <si>
-    <t>G701</t>
-  </si>
-  <si>
-    <t>A1RF435201</t>
-  </si>
-  <si>
-    <t>PARAFUSO</t>
-  </si>
-  <si>
-    <t>9.Z.006.3F</t>
-  </si>
-  <si>
-    <t>GAV - 300</t>
-  </si>
-  <si>
-    <t>G16</t>
-  </si>
-  <si>
-    <t>PR-05 B</t>
-  </si>
-  <si>
-    <t>A1RF815801</t>
-  </si>
-  <si>
-    <t>MOLA</t>
-  </si>
-  <si>
-    <t>A1UDM20000</t>
-  </si>
-  <si>
-    <t>EMBREAGEM</t>
-  </si>
-  <si>
-    <t>GAV-11</t>
-  </si>
-  <si>
-    <t>G131</t>
-  </si>
-  <si>
-    <t>02-01-43</t>
-  </si>
-  <si>
-    <t>A2UPN30501</t>
-  </si>
-  <si>
-    <t>CABO DE ALIMENTAÇÃO</t>
-  </si>
-  <si>
-    <t>R03H05</t>
-  </si>
-  <si>
-    <t>A4EUR75P00</t>
-  </si>
-  <si>
-    <t>CONJUNTO DO MOTOR DE LÂMINA</t>
-  </si>
-  <si>
-    <t>04-01-43</t>
-  </si>
-  <si>
-    <t>A4F3905400</t>
-  </si>
-  <si>
-    <t>ESCOVA NEUTRALIZADORA /S</t>
-  </si>
-  <si>
-    <t>9.T.002.1</t>
-  </si>
-  <si>
-    <t>G116</t>
-  </si>
-  <si>
-    <t>05-01-44</t>
-  </si>
-  <si>
-    <t>A4F3R71511</t>
-  </si>
-  <si>
-    <t>CONJUNTO DA CORREIA</t>
-  </si>
-  <si>
-    <t>9.O.001.4</t>
+    <t>A1DUR73N00</t>
+  </si>
+  <si>
+    <t>CONJUNTO DE SOLENOÍDE</t>
+  </si>
+  <si>
+    <t>GAV-631</t>
+  </si>
+  <si>
+    <t>A1RF105700</t>
+  </si>
+  <si>
+    <t>CHAPA DE MONTAGEM /6</t>
+  </si>
+  <si>
+    <t>G31</t>
+  </si>
+  <si>
+    <t>A21ER70200</t>
+  </si>
+  <si>
+    <t>GAV-283</t>
+  </si>
+  <si>
+    <t>GAV - 283</t>
+  </si>
+  <si>
+    <t>G394</t>
+  </si>
+  <si>
+    <t>03-02-25</t>
+  </si>
+  <si>
+    <t>A3PM173301</t>
+  </si>
+  <si>
+    <t>SUPORTE DA TAMPA</t>
+  </si>
+  <si>
+    <t>R03I06</t>
   </si>
   <si>
     <t>KP03GAVETA</t>
   </si>
   <si>
-    <t>P19-2</t>
-  </si>
-  <si>
-    <t>A50U221701</t>
-  </si>
-  <si>
-    <t>GUIA</t>
-  </si>
-  <si>
-    <t>A50U221800</t>
-  </si>
-  <si>
-    <t>ENGRENAGEM  /D 40T</t>
-  </si>
-  <si>
-    <t>A50U505800</t>
-  </si>
-  <si>
-    <t>BLOCO DE VOLTAGEM /B</t>
-  </si>
-  <si>
-    <t>9.Z.012.5C</t>
-  </si>
-  <si>
-    <t>G954</t>
-  </si>
-  <si>
-    <t>A50U520001</t>
-  </si>
-  <si>
-    <t>R04B03</t>
-  </si>
-  <si>
-    <t>05-01-43</t>
-  </si>
-  <si>
-    <t>A50U525900</t>
-  </si>
-  <si>
-    <t>FILME</t>
-  </si>
-  <si>
-    <t>G66</t>
-  </si>
-  <si>
-    <t>P3-3</t>
-  </si>
-  <si>
-    <t>A50UR70266</t>
-  </si>
-  <si>
-    <t>UNIDADE DE REVELAÇÃO</t>
-  </si>
-  <si>
-    <t>CE03</t>
-  </si>
-  <si>
-    <t>R02I01</t>
-  </si>
-  <si>
-    <t>EK38</t>
-  </si>
-  <si>
-    <t>01-15-2-2</t>
-  </si>
-  <si>
-    <t>A5AW359800</t>
-  </si>
-  <si>
-    <t>G343</t>
-  </si>
-  <si>
-    <t>01-01-34</t>
-  </si>
-  <si>
-    <t>A5AW808000</t>
-  </si>
-  <si>
-    <t>9.V.001.3B</t>
-  </si>
-  <si>
-    <t>02-01-33</t>
-  </si>
-  <si>
-    <t>A5AW861000</t>
-  </si>
-  <si>
-    <t>EIXO DE TRANSPORTE</t>
+    <t>A4EUR70200</t>
+  </si>
+  <si>
+    <t>SENSOR TEMPERATURA</t>
+  </si>
+  <si>
+    <t>KP43</t>
+  </si>
+  <si>
+    <t>04-01-24</t>
+  </si>
+  <si>
+    <t>A50U760300</t>
+  </si>
+  <si>
+    <t>CHAPA INFERIOR</t>
+  </si>
+  <si>
+    <t>KP09</t>
+  </si>
+  <si>
+    <t>A50U765500</t>
+  </si>
+  <si>
+    <t>9.T.003.5</t>
+  </si>
+  <si>
+    <t>R04J04</t>
+  </si>
+  <si>
+    <t>KP22</t>
+  </si>
+  <si>
+    <t>PD/2</t>
+  </si>
+  <si>
+    <t>03-45-1-2</t>
+  </si>
+  <si>
+    <t>A50UM50200</t>
+  </si>
+  <si>
+    <t>DETECÇÃO DE FOTO</t>
+  </si>
+  <si>
+    <t>GAV-555</t>
+  </si>
+  <si>
+    <t>PALETE 03</t>
+  </si>
+  <si>
+    <t>A5AW515900</t>
+  </si>
+  <si>
+    <t>RASPADOR</t>
+  </si>
+  <si>
+    <t>GAV - 883</t>
+  </si>
+  <si>
+    <t>P10-5</t>
+  </si>
+  <si>
+    <t>A5AW720301</t>
+  </si>
+  <si>
+    <t>MANTA DA FUSÃO</t>
+  </si>
+  <si>
+    <t>CORRED-D02</t>
   </si>
   <si>
     <t>KP25</t>
   </si>
   <si>
-    <t>PS/3</t>
-  </si>
-  <si>
-    <t>A5AWR71400</t>
-  </si>
-  <si>
-    <t>CONJUNTO DO CILINDRO</t>
-  </si>
-  <si>
-    <t>01-18-1-1</t>
+    <t>PD/1</t>
+  </si>
+  <si>
+    <t>03-43-1-1</t>
+  </si>
+  <si>
+    <t>A5AWR71R11</t>
+  </si>
+  <si>
+    <t>EK07</t>
+  </si>
+  <si>
+    <t>PC/2</t>
+  </si>
+  <si>
+    <t>03-24-1-1</t>
   </si>
   <si>
     <t>A5AWR72300</t>
@@ -499,157 +469,190 @@
     <t>SENSOR</t>
   </si>
   <si>
+    <t>PC/5</t>
+  </si>
+  <si>
     <t>01-42-1-1</t>
   </si>
   <si>
-    <t>A5C1562200</t>
-  </si>
-  <si>
-    <t>9.O.005.5</t>
-  </si>
-  <si>
-    <t>GAV-791</t>
-  </si>
-  <si>
-    <t>G29</t>
-  </si>
-  <si>
-    <t>1146/47/48</t>
-  </si>
-  <si>
-    <t>03-02-53</t>
-  </si>
-  <si>
-    <t>A5C1H0200B</t>
-  </si>
-  <si>
-    <t>PLACA PWB MFP</t>
-  </si>
-  <si>
-    <t>R02B05</t>
-  </si>
-  <si>
-    <t>03-24-1-1</t>
-  </si>
-  <si>
-    <t>A7X5720100</t>
+    <t>A5AWR73011</t>
+  </si>
+  <si>
+    <t>CONUNTO DO ALIMENTADOR</t>
+  </si>
+  <si>
+    <t>PA/4</t>
+  </si>
+  <si>
+    <t>A797578100</t>
+  </si>
+  <si>
+    <t>R04D04</t>
+  </si>
+  <si>
+    <t>A7PU160200</t>
+  </si>
+  <si>
+    <t>TAMPA</t>
+  </si>
+  <si>
+    <t>R02E04</t>
+  </si>
+  <si>
+    <t>A7PUM10000</t>
+  </si>
+  <si>
+    <t>04-02-35</t>
+  </si>
+  <si>
+    <t>A7X5740100</t>
   </si>
   <si>
     <t>ROLO DA FUSÃO</t>
   </si>
   <si>
-    <t>9.U.006.2</t>
-  </si>
-  <si>
-    <t>KP24</t>
-  </si>
-  <si>
-    <t>P20-7</t>
-  </si>
-  <si>
-    <t>A92WR70211</t>
-  </si>
-  <si>
-    <t>CAIXA</t>
-  </si>
-  <si>
-    <t>1.H.007.1</t>
-  </si>
-  <si>
-    <t>CORR-D03</t>
-  </si>
-  <si>
-    <t>EK02</t>
-  </si>
-  <si>
-    <t>PD/1</t>
-  </si>
-  <si>
-    <t>03-14-1-2</t>
-  </si>
-  <si>
-    <t>A92WR70744</t>
-  </si>
-  <si>
-    <t>UNIDADE DE TRANSFERÊNCIA /2</t>
-  </si>
-  <si>
-    <t>A92WR70R00</t>
-  </si>
-  <si>
-    <t>MOTOR DE LIMPEZA</t>
-  </si>
-  <si>
-    <t>A9JTR71622</t>
-  </si>
-  <si>
-    <t>UNIDADE DE LIMPEZA DO CILINDRO</t>
-  </si>
-  <si>
-    <t>1.H.067.2</t>
-  </si>
-  <si>
-    <t>EK05</t>
+    <t>KP45</t>
+  </si>
+  <si>
+    <t>P18-6</t>
+  </si>
+  <si>
+    <t>A85CM10100</t>
+  </si>
+  <si>
+    <t>MOTOR DC</t>
+  </si>
+  <si>
+    <t>A92WR70600</t>
+  </si>
+  <si>
+    <t>UNIDADE LIMPEZA DA CORREIA TRANSFERÊNCIA</t>
+  </si>
+  <si>
+    <t>CORRED.D04</t>
+  </si>
+  <si>
+    <t>RD/1-3</t>
+  </si>
+  <si>
+    <t>03-24-1-2</t>
+  </si>
+  <si>
+    <t>A92WR70C11</t>
+  </si>
+  <si>
+    <t>CONJUNTO AUXILIAR DE LIMPEZA</t>
+  </si>
+  <si>
+    <t>A92WR71M00</t>
+  </si>
+  <si>
+    <t>SUPORTE DE MONTAGEM</t>
+  </si>
+  <si>
+    <t>9.R.006.3</t>
+  </si>
+  <si>
+    <t>G806/G807</t>
+  </si>
+  <si>
+    <t>03-02-44</t>
+  </si>
+  <si>
+    <t>A9CE722400</t>
+  </si>
+  <si>
+    <t>LIMITADOR DE REGULAGEM</t>
+  </si>
+  <si>
+    <t>A9CE724100</t>
+  </si>
+  <si>
+    <t>MOLA  /1</t>
+  </si>
+  <si>
+    <t>A9JTM33001</t>
+  </si>
+  <si>
+    <t>CONJUNTO DE LÂMPADAS</t>
+  </si>
+  <si>
+    <t>KP17</t>
+  </si>
+  <si>
+    <t>PC/3</t>
+  </si>
+  <si>
+    <t>A9JTR71200</t>
+  </si>
+  <si>
+    <t>UNIDADE DESENCURVADORA</t>
+  </si>
+  <si>
+    <t>9.R.008.5</t>
+  </si>
+  <si>
+    <t>A9VE720300</t>
+  </si>
+  <si>
+    <t>PB/3</t>
+  </si>
+  <si>
+    <t>01-29-1-1</t>
+  </si>
+  <si>
+    <t>AA2J578100</t>
+  </si>
+  <si>
+    <t>PE/1</t>
+  </si>
+  <si>
+    <t>02-02-51</t>
+  </si>
+  <si>
+    <t>AC0C720300</t>
+  </si>
+  <si>
+    <t>CORREIA DA FUSÃO 527L</t>
   </si>
   <si>
     <t>PC/1</t>
   </si>
   <si>
-    <t>04-14-1-1</t>
-  </si>
-  <si>
-    <t>A9VE500200</t>
-  </si>
-  <si>
-    <t>CORREIA DE TRANSFERÊNCIA</t>
-  </si>
-  <si>
-    <t>1.H.108.2</t>
-  </si>
-  <si>
-    <t>CORRE-D04</t>
-  </si>
-  <si>
-    <t>PB/3</t>
-  </si>
-  <si>
-    <t>01-33-1-1</t>
-  </si>
-  <si>
-    <t>A9VP758800</t>
-  </si>
-  <si>
-    <t>MOLA /2</t>
-  </si>
-  <si>
-    <t>AA2JR70322</t>
-  </si>
-  <si>
-    <t>UNIDADE DE FUSÃO (120V)</t>
-  </si>
-  <si>
-    <t>R02H01</t>
-  </si>
-  <si>
-    <t>ER06</t>
-  </si>
-  <si>
-    <t>AC0C720300</t>
-  </si>
-  <si>
-    <t>CORREIA DA FUSÃO 527L</t>
-  </si>
-  <si>
-    <t>03-51-1-2</t>
-  </si>
-  <si>
-    <t>DD1A012A30</t>
-  </si>
-  <si>
-    <t>CONJUNTO DE FUSÃO</t>
-  </si>
-  <si>
-    <t>R03B01</t>
+    <t>AC0C720401</t>
+  </si>
+  <si>
+    <t>03-49-1-2</t>
+  </si>
+  <si>
+    <t>AC57M50001</t>
+  </si>
+  <si>
+    <t>SENSOR DE TEMPERATURA /1</t>
+  </si>
+  <si>
+    <t>AC57R70111</t>
+  </si>
+  <si>
+    <t>R04E06</t>
+  </si>
+  <si>
+    <t>ER02</t>
+  </si>
+  <si>
+    <t>02-42-1-2</t>
+  </si>
+  <si>
+    <t>SP00-0043</t>
+  </si>
+  <si>
+    <t>TERMOSTATO 3</t>
+  </si>
+  <si>
+    <t>G55</t>
+  </si>
+  <si>
+    <t>Tipo de material</t>
   </si>
   <si>
     <t>Material</t>
@@ -704,9 +707,6 @@
   </si>
   <si>
     <t>Status vendas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -716,15 +716,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -774,7 +769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -792,9 +787,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1130,7 +1122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S122"/>
+  <dimension ref="A1:S134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1138,14 +1130,14 @@
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
@@ -1156,63 +1148,63 @@
     <col min="19" max="19" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -1238,7 +1230,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
@@ -1253,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N2" s="2">
         <v>0</v>
@@ -1291,13 +1283,13 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
       <c r="H3" s="2">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
@@ -1312,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="2">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="N3" s="2">
         <v>0</v>
@@ -1338,28 +1330,28 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H4" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I4" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
@@ -1371,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
@@ -1397,25 +1389,25 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
@@ -1430,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -1456,28 +1448,28 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
       <c r="H6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
@@ -1489,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N6" s="2">
         <v>0</v>
@@ -1515,25 +1507,25 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
@@ -1548,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
@@ -1574,25 +1566,25 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G8" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
@@ -1607,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N8" s="2">
         <v>0</v>
@@ -1633,19 +1625,19 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G9" t="s">
         <v>23</v>
@@ -1654,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
@@ -1666,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
@@ -1701,10 +1693,10 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G10" t="s">
         <v>26</v>
@@ -1760,16 +1752,16 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G11" t="s">
         <v>29</v>
       </c>
       <c r="H11" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
@@ -1784,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N11" s="2">
         <v>0</v>
@@ -1810,25 +1802,25 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
       <c r="H12" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I12" s="2">
         <v>0</v>
@@ -1843,13 +1835,13 @@
         <v>0</v>
       </c>
       <c r="M12" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N12" s="2">
         <v>0</v>
       </c>
       <c r="O12" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P12" t="s">
         <v>7</v>
@@ -1869,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
@@ -1881,13 +1873,13 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>
       </c>
       <c r="H13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13" s="2">
         <v>0</v>
@@ -1902,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
@@ -1928,25 +1920,25 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H14" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
@@ -1961,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
@@ -1987,28 +1979,28 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
@@ -2020,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N15" s="2">
         <v>0</v>
@@ -2046,25 +2038,25 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
       </c>
       <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
         <v>38</v>
       </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" t="s">
-        <v>39</v>
-      </c>
       <c r="H16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
@@ -2079,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N16" s="2">
         <v>0</v>
@@ -2105,28 +2097,28 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
         <v>2</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
       </c>
       <c r="J17" s="2">
         <v>0</v>
@@ -2173,16 +2165,16 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
@@ -2197,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18" s="2">
         <v>0</v>
@@ -2223,28 +2215,28 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="H19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
@@ -2282,10 +2274,10 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
         <v>44</v>
-      </c>
-      <c r="C20" t="s">
-        <v>45</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
@@ -2294,16 +2286,16 @@
         <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="H20" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J20" s="2">
         <v>0</v>
@@ -2315,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N20" s="2">
         <v>0</v>
@@ -2341,25 +2333,25 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
         <v>47</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
         <v>48</v>
       </c>
-      <c r="D21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" t="s">
-        <v>49</v>
-      </c>
       <c r="H21" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I21" s="2">
         <v>0</v>
@@ -2374,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N21" s="2">
         <v>0</v>
@@ -2400,25 +2392,25 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
         <v>47</v>
       </c>
-      <c r="C22" t="s">
-        <v>48</v>
-      </c>
       <c r="D22" t="s">
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H22" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
@@ -2433,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22" s="2">
         <v>0</v>
@@ -2459,28 +2451,28 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
         <v>47</v>
       </c>
-      <c r="C23" t="s">
-        <v>48</v>
-      </c>
       <c r="D23" t="s">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H23" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="2">
         <v>0</v>
@@ -2492,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N23" s="2">
         <v>0</v>
@@ -2518,28 +2510,28 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H24" s="2">
-        <v>10</v>
+        <v>723</v>
       </c>
       <c r="I24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="2">
         <v>0</v>
@@ -2551,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="2">
-        <v>11</v>
+        <v>723</v>
       </c>
       <c r="N24" s="2">
         <v>0</v>
@@ -2577,25 +2569,25 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
         <v>55</v>
       </c>
       <c r="H25" s="2">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="I25" s="2">
         <v>0</v>
@@ -2610,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="2">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="N25" s="2">
         <v>0</v>
@@ -2636,28 +2628,28 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H26" s="2">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="I26" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J26" s="2">
         <v>0</v>
@@ -2669,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="2">
-        <v>4</v>
+        <v>191</v>
       </c>
       <c r="N26" s="2">
         <v>0</v>
@@ -2695,25 +2687,25 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H27" s="2">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="I27" s="2">
         <v>0</v>
@@ -2728,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="2">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="N27" s="2">
         <v>0</v>
@@ -2754,28 +2746,28 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H28" s="2">
-        <v>10</v>
+        <v>1678</v>
       </c>
       <c r="I28" s="2">
-        <v>0</v>
+        <v>1870</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
@@ -2787,13 +2779,13 @@
         <v>0</v>
       </c>
       <c r="M28" s="2">
-        <v>10</v>
+        <v>3548</v>
       </c>
       <c r="N28" s="2">
         <v>0</v>
       </c>
       <c r="O28" s="2">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="P28" t="s">
         <v>7</v>
@@ -2813,25 +2805,25 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="H29" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" s="2">
         <v>0</v>
@@ -2846,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N29" s="2">
         <v>0</v>
@@ -2861,10 +2853,10 @@
         <v>7</v>
       </c>
       <c r="R29" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="S29" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
@@ -2872,25 +2864,25 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="F30" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G30" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H30" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
@@ -2905,13 +2897,13 @@
         <v>0</v>
       </c>
       <c r="M30" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N30" s="2">
         <v>0</v>
       </c>
       <c r="O30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="s">
         <v>7</v>
@@ -2931,25 +2923,25 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H31" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I31" s="2">
         <v>0</v>
@@ -2964,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N31" s="2">
         <v>0</v>
@@ -2990,22 +2982,22 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="H32" s="2">
         <v>1</v>
@@ -3049,28 +3041,28 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G33" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="2">
         <v>0</v>
@@ -3108,22 +3100,22 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="G34" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H34" s="2">
         <v>2</v>
@@ -3167,25 +3159,25 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D35" t="s">
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H35" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" s="2">
         <v>0</v>
@@ -3200,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N35" s="2">
         <v>0</v>
@@ -3226,28 +3218,28 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D36" t="s">
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F36" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="G36" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" s="2">
         <v>0</v>
@@ -3285,28 +3277,28 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D37" t="s">
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G37" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="H37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="2">
         <v>0</v>
@@ -3324,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" t="s">
         <v>7</v>
@@ -3344,25 +3336,25 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D38" t="s">
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F38" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G38" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H38" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I38" s="2">
         <v>0</v>
@@ -3377,13 +3369,13 @@
         <v>0</v>
       </c>
       <c r="M38" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N38" s="2">
         <v>0</v>
       </c>
       <c r="O38" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P38" t="s">
         <v>7</v>
@@ -3403,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="F39" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G39" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="H39" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" s="2">
         <v>0</v>
@@ -3430,19 +3422,19 @@
         <v>0</v>
       </c>
       <c r="K39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="2">
         <v>0</v>
       </c>
       <c r="M39" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N39" s="2">
         <v>0</v>
       </c>
       <c r="O39" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P39" t="s">
         <v>7</v>
@@ -3462,25 +3454,25 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D40" t="s">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="G40" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H40" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I40" s="2">
         <v>0</v>
@@ -3495,13 +3487,13 @@
         <v>0</v>
       </c>
       <c r="M40" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N40" s="2">
         <v>0</v>
       </c>
       <c r="O40" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P40" t="s">
         <v>7</v>
@@ -3521,10 +3513,10 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D41" t="s">
         <v>3</v>
@@ -3533,16 +3525,16 @@
         <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G41" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H41" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J41" s="2">
         <v>0</v>
@@ -3554,13 +3546,13 @@
         <v>0</v>
       </c>
       <c r="M41" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N41" s="2">
         <v>0</v>
       </c>
       <c r="O41" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P41" t="s">
         <v>7</v>
@@ -3580,28 +3572,28 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="D42" t="s">
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H42" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="2">
         <v>0</v>
@@ -3613,13 +3605,13 @@
         <v>0</v>
       </c>
       <c r="M42" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N42" s="2">
         <v>0</v>
       </c>
       <c r="O42" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P42" t="s">
         <v>7</v>
@@ -3639,22 +3631,22 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D43" t="s">
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H43" s="2">
         <v>1</v>
@@ -3698,10 +3690,10 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D44" t="s">
         <v>3</v>
@@ -3713,10 +3705,10 @@
         <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="H44" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" s="2">
         <v>0</v>
@@ -3731,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N44" s="2">
         <v>0</v>
@@ -3757,25 +3749,25 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D45" t="s">
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G45" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="H45" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I45" s="2">
         <v>0</v>
@@ -3790,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N45" s="2">
         <v>0</v>
@@ -3816,28 +3808,28 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D46" t="s">
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G46" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H46" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I46" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J46" s="2">
         <v>0</v>
@@ -3849,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N46" s="2">
         <v>0</v>
@@ -3875,28 +3867,28 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D47" t="s">
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G47" t="s">
         <v>7</v>
       </c>
       <c r="H47" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" s="2">
         <v>0</v>
@@ -3908,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="M47" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N47" s="2">
         <v>0</v>
       </c>
       <c r="O47" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P47" t="s">
         <v>7</v>
@@ -3934,25 +3926,25 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D48" t="s">
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H48" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I48" s="2">
         <v>0</v>
@@ -3967,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N48" s="2">
         <v>0</v>
@@ -3993,25 +3985,25 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D49" t="s">
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="H49" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" s="2">
         <v>0</v>
@@ -4026,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N49" s="2">
         <v>0</v>
@@ -4052,22 +4044,22 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D50" t="s">
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F50" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G50" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H50" s="2">
         <v>1</v>
@@ -4111,22 +4103,22 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D51" t="s">
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F51" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G51" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -4159,10 +4151,10 @@
         <v>7</v>
       </c>
       <c r="R51" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="S51" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
@@ -4170,22 +4162,22 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D52" t="s">
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H52" s="2">
         <v>2</v>
@@ -4229,22 +4221,22 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D53" t="s">
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F53" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G53" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="H53" s="2">
         <v>1</v>
@@ -4268,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P53" t="s">
         <v>7</v>
@@ -4288,28 +4280,28 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C54" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="D54" t="s">
         <v>3</v>
       </c>
       <c r="E54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" t="s">
+        <v>36</v>
+      </c>
+      <c r="G54" t="s">
+        <v>108</v>
+      </c>
+      <c r="H54" s="2">
         <v>11</v>
       </c>
-      <c r="F54" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54" t="s">
-        <v>112</v>
-      </c>
-      <c r="H54" s="2">
-        <v>0</v>
-      </c>
       <c r="I54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" s="2">
         <v>0</v>
@@ -4321,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N54" s="2">
         <v>0</v>
@@ -4347,25 +4339,25 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C55" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="D55" t="s">
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H55" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I55" s="2">
         <v>0</v>
@@ -4380,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N55" s="2">
         <v>0</v>
@@ -4406,22 +4398,22 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C56" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="D56" t="s">
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F56" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G56" t="s">
-        <v>116</v>
+        <v>7</v>
       </c>
       <c r="H56" s="2">
         <v>2</v>
@@ -4465,28 +4457,28 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C57" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="D57" t="s">
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G57" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H57" s="2">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="I57" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J57" s="2">
         <v>0</v>
@@ -4498,13 +4490,13 @@
         <v>0</v>
       </c>
       <c r="M57" s="2">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="N57" s="2">
         <v>0</v>
       </c>
       <c r="O57" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P57" t="s">
         <v>7</v>
@@ -4524,28 +4516,28 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="D58" t="s">
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G58" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="H58" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J58" s="2">
         <v>0</v>
@@ -4557,13 +4549,13 @@
         <v>0</v>
       </c>
       <c r="M58" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N58" s="2">
         <v>0</v>
       </c>
       <c r="O58" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P58" t="s">
         <v>7</v>
@@ -4583,25 +4575,25 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C59" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D59" t="s">
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F59" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G59" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H59" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" s="2">
         <v>0</v>
@@ -4616,7 +4608,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N59" s="2">
         <v>0</v>
@@ -4642,25 +4634,25 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C60" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D60" t="s">
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="H60" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I60" s="2">
         <v>0</v>
@@ -4675,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N60" s="2">
         <v>0</v>
@@ -4701,25 +4693,25 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C61" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D61" t="s">
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="G61" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="H61" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" s="2">
         <v>0</v>
@@ -4734,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N61" s="2">
         <v>0</v>
@@ -4760,25 +4752,25 @@
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C62" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D62" t="s">
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F62" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G62" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="H62" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I62" s="2">
         <v>0</v>
@@ -4793,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N62" s="2">
         <v>0</v>
@@ -4819,28 +4811,28 @@
         <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C63" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D63" t="s">
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F63" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G63" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="H63" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J63" s="2">
         <v>0</v>
@@ -4852,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="M63" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N63" s="2">
         <v>0</v>
@@ -4878,28 +4870,28 @@
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C64" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D64" t="s">
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F64" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G64" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="H64" s="2">
         <v>1</v>
       </c>
       <c r="I64" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J64" s="2">
         <v>0</v>
@@ -4911,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N64" s="2">
         <v>0</v>
@@ -4937,25 +4929,25 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C65" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="D65" t="s">
         <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="F65" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G65" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H65" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I65" s="2">
         <v>0</v>
@@ -4970,13 +4962,13 @@
         <v>0</v>
       </c>
       <c r="M65" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N65" s="2">
         <v>0</v>
       </c>
       <c r="O65" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P65" t="s">
         <v>7</v>
@@ -4996,28 +4988,28 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C66" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="D66" t="s">
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="H66" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J66" s="2">
         <v>0</v>
@@ -5029,13 +5021,13 @@
         <v>0</v>
       </c>
       <c r="M66" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N66" s="2">
         <v>0</v>
       </c>
       <c r="O66" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P66" t="s">
         <v>7</v>
@@ -5055,25 +5047,25 @@
         <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D67" t="s">
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H67" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I67" s="2">
         <v>0</v>
@@ -5088,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="M67" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N67" s="2">
         <v>0</v>
@@ -5114,28 +5106,28 @@
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D68" t="s">
         <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F68" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G68" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H68" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I68" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J68" s="2">
         <v>0</v>
@@ -5147,13 +5139,13 @@
         <v>0</v>
       </c>
       <c r="M68" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N68" s="2">
         <v>0</v>
       </c>
       <c r="O68" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68" t="s">
         <v>7</v>
@@ -5173,28 +5165,28 @@
         <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C69" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="D69" t="s">
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G69" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="H69" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I69" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J69" s="2">
         <v>0</v>
@@ -5206,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="M69" s="2">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="N69" s="2">
         <v>0</v>
@@ -5232,28 +5224,28 @@
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C70" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="D70" t="s">
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F70" t="s">
         <v>5</v>
       </c>
       <c r="G70" t="s">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="H70" s="2">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="I70" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J70" s="2">
         <v>0</v>
@@ -5265,13 +5257,13 @@
         <v>0</v>
       </c>
       <c r="M70" s="2">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="N70" s="2">
         <v>0</v>
       </c>
       <c r="O70" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P70" t="s">
         <v>7</v>
@@ -5291,25 +5283,25 @@
         <v>0</v>
       </c>
       <c r="B71" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C71" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D71" t="s">
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H71" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" s="2">
         <v>0</v>
@@ -5324,7 +5316,7 @@
         <v>0</v>
       </c>
       <c r="M71" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N71" s="2">
         <v>0</v>
@@ -5350,25 +5342,25 @@
         <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C72" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D72" t="s">
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F72" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G72" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H72" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" s="2">
         <v>0</v>
@@ -5383,13 +5375,13 @@
         <v>0</v>
       </c>
       <c r="M72" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N72" s="2">
         <v>0</v>
       </c>
       <c r="O72" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P72" t="s">
         <v>7</v>
@@ -5409,19 +5401,19 @@
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C73" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D73" t="s">
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G73" t="s">
         <v>7</v>
@@ -5436,13 +5428,13 @@
         <v>0</v>
       </c>
       <c r="K73" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L73" s="2">
         <v>0</v>
       </c>
       <c r="M73" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N73" s="2">
         <v>0</v>
@@ -5468,25 +5460,25 @@
         <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C74" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D74" t="s">
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H74" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I74" s="2">
         <v>0</v>
@@ -5501,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="M74" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N74" s="2">
         <v>0</v>
@@ -5527,25 +5519,25 @@
         <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C75" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D75" t="s">
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F75" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G75" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="H75" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I75" s="2">
         <v>0</v>
@@ -5560,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="M75" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N75" s="2">
         <v>0</v>
@@ -5586,28 +5578,28 @@
         <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C76" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D76" t="s">
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F76" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G76" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H76" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J76" s="2">
         <v>0</v>
@@ -5619,7 +5611,7 @@
         <v>0</v>
       </c>
       <c r="M76" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N76" s="2">
         <v>0</v>
@@ -5645,28 +5637,28 @@
         <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C77" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="D77" t="s">
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F77" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G77" t="s">
-        <v>145</v>
+        <v>7</v>
       </c>
       <c r="H77" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I77" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" s="2">
         <v>0</v>
@@ -5678,13 +5670,13 @@
         <v>0</v>
       </c>
       <c r="M77" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N77" s="2">
         <v>0</v>
       </c>
       <c r="O77" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P77" t="s">
         <v>7</v>
@@ -5704,28 +5696,28 @@
         <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C78" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="D78" t="s">
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="F78" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G78" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="H78" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I78" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J78" s="2">
         <v>0</v>
@@ -5737,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="M78" s="2">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="N78" s="2">
         <v>0</v>
@@ -5763,22 +5755,22 @@
         <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C79" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="D79" t="s">
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="H79" s="2">
         <v>2</v>
@@ -5802,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P79" t="s">
         <v>7</v>
@@ -5822,40 +5814,40 @@
         <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C80" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="D80" t="s">
         <v>3</v>
       </c>
       <c r="E80" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80" t="s">
+        <v>140</v>
+      </c>
+      <c r="H80" s="2">
+        <v>10</v>
+      </c>
+      <c r="I80" s="2">
+        <v>1</v>
+      </c>
+      <c r="J80" s="2">
+        <v>0</v>
+      </c>
+      <c r="K80" s="2">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2">
+        <v>0</v>
+      </c>
+      <c r="M80" s="2">
         <v>11</v>
-      </c>
-      <c r="F80" t="s">
-        <v>9</v>
-      </c>
-      <c r="G80" t="s">
-        <v>149</v>
-      </c>
-      <c r="H80" s="2">
-        <v>0</v>
-      </c>
-      <c r="I80" s="2">
-        <v>1</v>
-      </c>
-      <c r="J80" s="2">
-        <v>0</v>
-      </c>
-      <c r="K80" s="2">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2">
-        <v>0</v>
-      </c>
-      <c r="M80" s="2">
-        <v>1</v>
       </c>
       <c r="N80" s="2">
         <v>0</v>
@@ -5881,28 +5873,28 @@
         <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C81" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D81" t="s">
         <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F81" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G81" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="H81" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J81" s="2">
         <v>0</v>
@@ -5914,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="M81" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N81" s="2">
         <v>0</v>
@@ -5940,28 +5932,28 @@
         <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C82" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D82" t="s">
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F82" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G82" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="H82" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I82" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J82" s="2">
         <v>0</v>
@@ -5973,13 +5965,13 @@
         <v>0</v>
       </c>
       <c r="M82" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="N82" s="2">
         <v>0</v>
       </c>
       <c r="O82" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P82" t="s">
         <v>7</v>
@@ -5999,22 +5991,22 @@
         <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C83" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="D83" t="s">
         <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F83" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G83" t="s">
-        <v>7</v>
+        <v>144</v>
       </c>
       <c r="H83" s="2">
         <v>1</v>
@@ -6038,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P83" t="s">
         <v>7</v>
@@ -6058,22 +6050,22 @@
         <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C84" t="s">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="D84" t="s">
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F84" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G84" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="H84" s="2">
         <v>1</v>
@@ -6097,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="O84" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P84" t="s">
         <v>7</v>
@@ -6117,28 +6109,28 @@
         <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="C85" t="s">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="D85" t="s">
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F85" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G85" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="H85" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" s="2">
         <v>0</v>
@@ -6150,13 +6142,13 @@
         <v>0</v>
       </c>
       <c r="M85" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N85" s="2">
         <v>0</v>
       </c>
       <c r="O85" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P85" t="s">
         <v>7</v>
@@ -6176,28 +6168,28 @@
         <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="D86" t="s">
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F86" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G86" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H86" s="2">
         <v>0</v>
       </c>
       <c r="I86" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J86" s="2">
         <v>0</v>
@@ -6209,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="M86" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="N86" s="2">
         <v>0</v>
@@ -6235,28 +6227,28 @@
         <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="D87" t="s">
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F87" t="s">
         <v>5</v>
       </c>
       <c r="G87" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="H87" s="2">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I87" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J87" s="2">
         <v>0</v>
@@ -6268,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="M87" s="2">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="N87" s="2">
         <v>0</v>
@@ -6294,28 +6286,28 @@
         <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="D88" t="s">
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F88" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G88" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="H88" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I88" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" s="2">
         <v>0</v>
@@ -6327,7 +6319,7 @@
         <v>0</v>
       </c>
       <c r="M88" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N88" s="2">
         <v>0</v>
@@ -6353,28 +6345,28 @@
         <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="D89" t="s">
         <v>3</v>
       </c>
       <c r="E89" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F89" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G89" t="s">
-        <v>164</v>
+        <v>7</v>
       </c>
       <c r="H89" s="2">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="I89" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" s="2">
         <v>0</v>
@@ -6386,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="M89" s="2">
-        <v>106</v>
+        <v>2</v>
       </c>
       <c r="N89" s="2">
         <v>0</v>
@@ -6412,28 +6404,28 @@
         <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D90" t="s">
         <v>3</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="H90" s="2">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="I90" s="2">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="J90" s="2">
         <v>0</v>
@@ -6445,13 +6437,13 @@
         <v>0</v>
       </c>
       <c r="M90" s="2">
-        <v>346</v>
+        <v>2</v>
       </c>
       <c r="N90" s="2">
         <v>0</v>
       </c>
       <c r="O90" s="2">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="P90" t="s">
         <v>7</v>
@@ -6471,28 +6463,28 @@
         <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C91" t="s">
-        <v>167</v>
+        <v>52</v>
       </c>
       <c r="D91" t="s">
         <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F91" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G91" t="s">
-        <v>168</v>
+        <v>7</v>
       </c>
       <c r="H91" s="2">
+        <v>0</v>
+      </c>
+      <c r="I91" s="2">
         <v>2</v>
-      </c>
-      <c r="I91" s="2">
-        <v>0</v>
       </c>
       <c r="J91" s="2">
         <v>0</v>
@@ -6530,28 +6522,28 @@
         <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C92" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D92" t="s">
         <v>3</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H92" s="2">
         <v>1</v>
       </c>
       <c r="I92" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" s="2">
         <v>0</v>
@@ -6563,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="M92" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N92" s="2">
         <v>0</v>
@@ -6589,28 +6581,28 @@
         <v>0</v>
       </c>
       <c r="B93" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C93" t="s">
-        <v>171</v>
+        <v>44</v>
       </c>
       <c r="D93" t="s">
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F93" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G93" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="H93" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" s="2">
         <v>0</v>
@@ -6622,13 +6614,13 @@
         <v>0</v>
       </c>
       <c r="M93" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N93" s="2">
         <v>0</v>
       </c>
       <c r="O93" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P93" t="s">
         <v>7</v>
@@ -6648,25 +6640,25 @@
         <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C94" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D94" t="s">
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F94" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G94" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="H94" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I94" s="2">
         <v>0</v>
@@ -6681,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="M94" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N94" s="2">
         <v>0</v>
@@ -6707,10 +6699,10 @@
         <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C95" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D95" t="s">
         <v>3</v>
@@ -6719,10 +6711,10 @@
         <v>8</v>
       </c>
       <c r="F95" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G95" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H95" s="2">
         <v>0</v>
@@ -6766,28 +6758,28 @@
         <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C96" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D96" t="s">
         <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F96" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G96" t="s">
         <v>7</v>
       </c>
       <c r="H96" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" s="2">
         <v>0</v>
@@ -6825,22 +6817,22 @@
         <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C97" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D97" t="s">
         <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H97" s="2">
         <v>3</v>
@@ -6884,25 +6876,25 @@
         <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C98" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D98" t="s">
         <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F98" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G98" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="H98" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" s="2">
         <v>0</v>
@@ -6917,13 +6909,13 @@
         <v>0</v>
       </c>
       <c r="M98" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N98" s="2">
         <v>0</v>
       </c>
       <c r="O98" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P98" t="s">
         <v>7</v>
@@ -6943,28 +6935,28 @@
         <v>0</v>
       </c>
       <c r="B99" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C99" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D99" t="s">
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F99" t="s">
         <v>5</v>
       </c>
       <c r="G99" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H99" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" s="2">
         <v>0</v>
@@ -6976,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="M99" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N99" s="2">
         <v>0</v>
@@ -7002,25 +6994,25 @@
         <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C100" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D100" t="s">
         <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F100" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G100" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="H100" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I100" s="2">
         <v>0</v>
@@ -7035,7 +7027,7 @@
         <v>0</v>
       </c>
       <c r="M100" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N100" s="2">
         <v>0</v>
@@ -7061,25 +7053,25 @@
         <v>0</v>
       </c>
       <c r="B101" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C101" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D101" t="s">
         <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F101" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G101" t="s">
-        <v>180</v>
+        <v>7</v>
       </c>
       <c r="H101" s="2">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="I101" s="2">
         <v>0</v>
@@ -7094,13 +7086,13 @@
         <v>0</v>
       </c>
       <c r="M101" s="2">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="N101" s="2">
         <v>0</v>
       </c>
       <c r="O101" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P101" t="s">
         <v>7</v>
@@ -7120,46 +7112,46 @@
         <v>0</v>
       </c>
       <c r="B102" t="s">
+        <v>174</v>
+      </c>
+      <c r="C102" t="s">
         <v>175</v>
       </c>
-      <c r="C102" t="s">
-        <v>176</v>
-      </c>
       <c r="D102" t="s">
         <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="F102" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G102" t="s">
-        <v>181</v>
+        <v>7</v>
       </c>
       <c r="H102" s="2">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I102" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J102" s="2">
         <v>0</v>
       </c>
       <c r="K102" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L102" s="2">
         <v>0</v>
       </c>
       <c r="M102" s="2">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="N102" s="2">
         <v>0</v>
       </c>
       <c r="O102" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P102" t="s">
         <v>7</v>
@@ -7179,25 +7171,25 @@
         <v>0</v>
       </c>
       <c r="B103" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C103" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D103" t="s">
         <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="F103" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G103" t="s">
-        <v>7</v>
+        <v>176</v>
       </c>
       <c r="H103" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" s="2">
         <v>0</v>
@@ -7212,13 +7204,13 @@
         <v>0</v>
       </c>
       <c r="M103" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N103" s="2">
         <v>0</v>
       </c>
       <c r="O103" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P103" t="s">
         <v>7</v>
@@ -7238,10 +7230,10 @@
         <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C104" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D104" t="s">
         <v>3</v>
@@ -7250,16 +7242,16 @@
         <v>8</v>
       </c>
       <c r="F104" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G104" t="s">
-        <v>7</v>
+        <v>177</v>
       </c>
       <c r="H104" s="2">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="I104" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J104" s="2">
         <v>0</v>
@@ -7271,7 +7263,7 @@
         <v>0</v>
       </c>
       <c r="M104" s="2">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="N104" s="2">
         <v>0</v>
@@ -7297,28 +7289,28 @@
         <v>0</v>
       </c>
       <c r="B105" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C105" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D105" t="s">
         <v>3</v>
       </c>
       <c r="E105" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G105" t="s">
+        <v>178</v>
+      </c>
+      <c r="H105" s="2">
         <v>11</v>
       </c>
-      <c r="F105" t="s">
-        <v>9</v>
-      </c>
-      <c r="G105" t="s">
-        <v>7</v>
-      </c>
-      <c r="H105" s="2">
-        <v>0</v>
-      </c>
       <c r="I105" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" s="2">
         <v>0</v>
@@ -7330,13 +7322,13 @@
         <v>0</v>
       </c>
       <c r="M105" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N105" s="2">
         <v>0</v>
       </c>
       <c r="O105" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P105" t="s">
         <v>7</v>
@@ -7356,40 +7348,40 @@
         <v>0</v>
       </c>
       <c r="B106" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C106" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D106" t="s">
         <v>3</v>
       </c>
       <c r="E106" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="F106" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G106" t="s">
-        <v>188</v>
+        <v>7</v>
       </c>
       <c r="H106" s="2">
         <v>0</v>
       </c>
       <c r="I106" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J106" s="2">
         <v>0</v>
       </c>
       <c r="K106" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L106" s="2">
         <v>0</v>
       </c>
       <c r="M106" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N106" s="2">
         <v>0</v>
@@ -7415,28 +7407,28 @@
         <v>0</v>
       </c>
       <c r="B107" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C107" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D107" t="s">
         <v>3</v>
       </c>
       <c r="E107" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="F107" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G107" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H107" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" s="2">
         <v>0</v>
@@ -7474,28 +7466,28 @@
         <v>0</v>
       </c>
       <c r="B108" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C108" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D108" t="s">
         <v>3</v>
       </c>
       <c r="E108" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F108" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G108" t="s">
-        <v>189</v>
+        <v>7</v>
       </c>
       <c r="H108" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J108" s="2">
         <v>0</v>
@@ -7507,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="M108" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N108" s="2">
         <v>0</v>
@@ -7533,10 +7525,10 @@
         <v>0</v>
       </c>
       <c r="B109" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C109" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D109" t="s">
         <v>3</v>
@@ -7545,16 +7537,16 @@
         <v>8</v>
       </c>
       <c r="F109" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G109" t="s">
-        <v>190</v>
+        <v>7</v>
       </c>
       <c r="H109" s="2">
+        <v>0</v>
+      </c>
+      <c r="I109" s="2">
         <v>2</v>
-      </c>
-      <c r="I109" s="2">
-        <v>0</v>
       </c>
       <c r="J109" s="2">
         <v>0</v>
@@ -7572,7 +7564,7 @@
         <v>0</v>
       </c>
       <c r="O109" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P109" t="s">
         <v>7</v>
@@ -7592,28 +7584,28 @@
         <v>0</v>
       </c>
       <c r="B110" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C110" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D110" t="s">
         <v>3</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F110" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G110" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H110" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J110" s="2">
         <v>0</v>
@@ -7625,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="M110" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N110" s="2">
         <v>0</v>
@@ -7651,28 +7643,28 @@
         <v>0</v>
       </c>
       <c r="B111" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C111" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D111" t="s">
         <v>3</v>
       </c>
       <c r="E111" t="s">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="F111" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G111" t="s">
-        <v>7</v>
+        <v>186</v>
       </c>
       <c r="H111" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J111" s="2">
         <v>0</v>
@@ -7684,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="M111" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N111" s="2">
         <v>0</v>
@@ -7710,28 +7702,28 @@
         <v>0</v>
       </c>
       <c r="B112" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C112" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D112" t="s">
         <v>3</v>
       </c>
       <c r="E112" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F112" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G112" t="s">
-        <v>194</v>
+        <v>142</v>
       </c>
       <c r="H112" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I112" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J112" s="2">
         <v>0</v>
@@ -7743,13 +7735,13 @@
         <v>0</v>
       </c>
       <c r="M112" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N112" s="2">
         <v>0</v>
       </c>
       <c r="O112" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P112" t="s">
         <v>7</v>
@@ -7769,25 +7761,25 @@
         <v>0</v>
       </c>
       <c r="B113" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C113" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D113" t="s">
         <v>3</v>
       </c>
       <c r="E113" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="F113" t="s">
         <v>5</v>
       </c>
       <c r="G113" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="H113" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I113" s="2">
         <v>0</v>
@@ -7802,13 +7794,13 @@
         <v>0</v>
       </c>
       <c r="M113" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N113" s="2">
         <v>0</v>
       </c>
       <c r="O113" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P113" t="s">
         <v>7</v>
@@ -7828,28 +7820,28 @@
         <v>0</v>
       </c>
       <c r="B114" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C114" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D114" t="s">
         <v>3</v>
       </c>
       <c r="E114" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F114" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G114" t="s">
-        <v>196</v>
+        <v>7</v>
       </c>
       <c r="H114" s="2">
         <v>1</v>
       </c>
       <c r="I114" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J114" s="2">
         <v>0</v>
@@ -7861,7 +7853,7 @@
         <v>0</v>
       </c>
       <c r="M114" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N114" s="2">
         <v>0</v>
@@ -7887,28 +7879,28 @@
         <v>0</v>
       </c>
       <c r="B115" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C115" t="s">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="D115" t="s">
         <v>3</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="H115" s="2">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I115" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J115" s="2">
         <v>0</v>
@@ -7920,13 +7912,13 @@
         <v>0</v>
       </c>
       <c r="M115" s="2">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="N115" s="2">
         <v>0</v>
       </c>
       <c r="O115" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P115" t="s">
         <v>7</v>
@@ -7946,28 +7938,28 @@
         <v>0</v>
       </c>
       <c r="B116" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C116" t="s">
-        <v>199</v>
+        <v>59</v>
       </c>
       <c r="D116" t="s">
         <v>3</v>
       </c>
       <c r="E116" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="H116" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J116" s="2">
         <v>0</v>
@@ -7979,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="M116" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N116" s="2">
         <v>0</v>
@@ -8005,22 +7997,22 @@
         <v>0</v>
       </c>
       <c r="B117" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C117" t="s">
-        <v>201</v>
+        <v>59</v>
       </c>
       <c r="D117" t="s">
         <v>3</v>
       </c>
       <c r="E117" t="s">
+        <v>4</v>
+      </c>
+      <c r="F117" t="s">
+        <v>5</v>
+      </c>
+      <c r="G117" t="s">
         <v>140</v>
-      </c>
-      <c r="F117" t="s">
-        <v>5</v>
-      </c>
-      <c r="G117" t="s">
-        <v>7</v>
       </c>
       <c r="H117" s="2">
         <v>2</v>
@@ -8064,25 +8056,25 @@
         <v>0</v>
       </c>
       <c r="B118" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C118" t="s">
-        <v>201</v>
+        <v>59</v>
       </c>
       <c r="D118" t="s">
         <v>3</v>
       </c>
       <c r="E118" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F118" t="s">
         <v>5</v>
       </c>
       <c r="G118" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="H118" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I118" s="2">
         <v>0</v>
@@ -8097,13 +8089,13 @@
         <v>0</v>
       </c>
       <c r="M118" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N118" s="2">
         <v>0</v>
       </c>
       <c r="O118" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P118" t="s">
         <v>7</v>
@@ -8123,28 +8115,28 @@
         <v>0</v>
       </c>
       <c r="B119" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C119" t="s">
-        <v>201</v>
+        <v>59</v>
       </c>
       <c r="D119" t="s">
         <v>3</v>
       </c>
       <c r="E119" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F119" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G119" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="H119" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J119" s="2">
         <v>0</v>
@@ -8156,7 +8148,7 @@
         <v>0</v>
       </c>
       <c r="M119" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N119" s="2">
         <v>0</v>
@@ -8182,28 +8174,28 @@
         <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C120" t="s">
-        <v>205</v>
+        <v>52</v>
       </c>
       <c r="D120" t="s">
         <v>3</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F120" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G120" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="H120" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I120" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J120" s="2">
         <v>0</v>
@@ -8215,7 +8207,7 @@
         <v>0</v>
       </c>
       <c r="M120" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N120" s="2">
         <v>0</v>
@@ -8241,116 +8233,824 @@
         <v>0</v>
       </c>
       <c r="B121" t="s">
+        <v>193</v>
+      </c>
+      <c r="C121" t="s">
+        <v>52</v>
+      </c>
+      <c r="D121" t="s">
+        <v>3</v>
+      </c>
+      <c r="E121" t="s">
+        <v>16</v>
+      </c>
+      <c r="F121" t="s">
+        <v>5</v>
+      </c>
+      <c r="G121" t="s">
+        <v>195</v>
+      </c>
+      <c r="H121" s="2">
+        <v>0</v>
+      </c>
+      <c r="I121" s="2">
+        <v>14</v>
+      </c>
+      <c r="J121" s="2">
+        <v>0</v>
+      </c>
+      <c r="K121" s="2">
+        <v>0</v>
+      </c>
+      <c r="L121" s="2">
+        <v>0</v>
+      </c>
+      <c r="M121" s="2">
+        <v>14</v>
+      </c>
+      <c r="N121" s="2">
+        <v>0</v>
+      </c>
+      <c r="O121" s="2">
+        <v>0</v>
+      </c>
+      <c r="P121" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>7</v>
+      </c>
+      <c r="R121" t="s">
+        <v>7</v>
+      </c>
+      <c r="S121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" t="s">
+        <v>196</v>
+      </c>
+      <c r="C122" t="s">
+        <v>197</v>
+      </c>
+      <c r="D122" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" t="s">
+        <v>5</v>
+      </c>
+      <c r="G122" t="s">
+        <v>198</v>
+      </c>
+      <c r="H122" s="2">
+        <v>1</v>
+      </c>
+      <c r="I122" s="2">
+        <v>0</v>
+      </c>
+      <c r="J122" s="2">
+        <v>0</v>
+      </c>
+      <c r="K122" s="2">
+        <v>0</v>
+      </c>
+      <c r="L122" s="2">
+        <v>0</v>
+      </c>
+      <c r="M122" s="2">
+        <v>1</v>
+      </c>
+      <c r="N122" s="2">
+        <v>0</v>
+      </c>
+      <c r="O122" s="2">
+        <v>0</v>
+      </c>
+      <c r="P122" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>7</v>
+      </c>
+      <c r="R122" t="s">
+        <v>7</v>
+      </c>
+      <c r="S122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" t="s">
+        <v>199</v>
+      </c>
+      <c r="C123" t="s">
+        <v>52</v>
+      </c>
+      <c r="D123" t="s">
+        <v>3</v>
+      </c>
+      <c r="E123" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" t="s">
+        <v>5</v>
+      </c>
+      <c r="G123" t="s">
+        <v>56</v>
+      </c>
+      <c r="H123" s="2">
+        <v>10</v>
+      </c>
+      <c r="I123" s="2">
+        <v>0</v>
+      </c>
+      <c r="J123" s="2">
+        <v>0</v>
+      </c>
+      <c r="K123" s="2">
+        <v>0</v>
+      </c>
+      <c r="L123" s="2">
+        <v>0</v>
+      </c>
+      <c r="M123" s="2">
+        <v>10</v>
+      </c>
+      <c r="N123" s="2">
+        <v>0</v>
+      </c>
+      <c r="O123" s="2">
+        <v>0</v>
+      </c>
+      <c r="P123" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>7</v>
+      </c>
+      <c r="R123" t="s">
+        <v>7</v>
+      </c>
+      <c r="S123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" t="s">
+        <v>199</v>
+      </c>
+      <c r="C124" t="s">
+        <v>52</v>
+      </c>
+      <c r="D124" t="s">
+        <v>3</v>
+      </c>
+      <c r="E124" t="s">
+        <v>16</v>
+      </c>
+      <c r="F124" t="s">
+        <v>5</v>
+      </c>
+      <c r="G124" t="s">
+        <v>200</v>
+      </c>
+      <c r="H124" s="2">
+        <v>1</v>
+      </c>
+      <c r="I124" s="2">
+        <v>1</v>
+      </c>
+      <c r="J124" s="2">
+        <v>0</v>
+      </c>
+      <c r="K124" s="2">
+        <v>0</v>
+      </c>
+      <c r="L124" s="2">
+        <v>0</v>
+      </c>
+      <c r="M124" s="2">
+        <v>2</v>
+      </c>
+      <c r="N124" s="2">
+        <v>0</v>
+      </c>
+      <c r="O124" s="2">
+        <v>0</v>
+      </c>
+      <c r="P124" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>7</v>
+      </c>
+      <c r="R124" t="s">
+        <v>7</v>
+      </c>
+      <c r="S124" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" t="s">
+        <v>201</v>
+      </c>
+      <c r="C125" t="s">
+        <v>202</v>
+      </c>
+      <c r="D125" t="s">
+        <v>3</v>
+      </c>
+      <c r="E125" t="s">
+        <v>53</v>
+      </c>
+      <c r="F125" t="s">
+        <v>5</v>
+      </c>
+      <c r="G125" t="s">
+        <v>7</v>
+      </c>
+      <c r="H125" s="2">
+        <v>1</v>
+      </c>
+      <c r="I125" s="2">
+        <v>0</v>
+      </c>
+      <c r="J125" s="2">
+        <v>0</v>
+      </c>
+      <c r="K125" s="2">
+        <v>0</v>
+      </c>
+      <c r="L125" s="2">
+        <v>0</v>
+      </c>
+      <c r="M125" s="2">
+        <v>1</v>
+      </c>
+      <c r="N125" s="2">
+        <v>0</v>
+      </c>
+      <c r="O125" s="2">
+        <v>1</v>
+      </c>
+      <c r="P125" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>7</v>
+      </c>
+      <c r="R125" t="s">
+        <v>7</v>
+      </c>
+      <c r="S125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" t="s">
+        <v>203</v>
+      </c>
+      <c r="C126" t="s">
+        <v>97</v>
+      </c>
+      <c r="D126" t="s">
+        <v>3</v>
+      </c>
+      <c r="E126" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126" t="s">
+        <v>36</v>
+      </c>
+      <c r="G126" t="s">
+        <v>204</v>
+      </c>
+      <c r="H126" s="2">
+        <v>27</v>
+      </c>
+      <c r="I126" s="2">
+        <v>0</v>
+      </c>
+      <c r="J126" s="2">
+        <v>0</v>
+      </c>
+      <c r="K126" s="2">
+        <v>0</v>
+      </c>
+      <c r="L126" s="2">
+        <v>0</v>
+      </c>
+      <c r="M126" s="2">
+        <v>27</v>
+      </c>
+      <c r="N126" s="2">
+        <v>0</v>
+      </c>
+      <c r="O126" s="2">
+        <v>0</v>
+      </c>
+      <c r="P126" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>7</v>
+      </c>
+      <c r="R126" t="s">
+        <v>7</v>
+      </c>
+      <c r="S126" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" t="s">
+        <v>203</v>
+      </c>
+      <c r="C127" t="s">
+        <v>97</v>
+      </c>
+      <c r="D127" t="s">
+        <v>3</v>
+      </c>
+      <c r="E127" t="s">
+        <v>4</v>
+      </c>
+      <c r="F127" t="s">
+        <v>5</v>
+      </c>
+      <c r="G127" t="s">
+        <v>205</v>
+      </c>
+      <c r="H127" s="2">
+        <v>18</v>
+      </c>
+      <c r="I127" s="2">
+        <v>0</v>
+      </c>
+      <c r="J127" s="2">
+        <v>0</v>
+      </c>
+      <c r="K127" s="2">
+        <v>8</v>
+      </c>
+      <c r="L127" s="2">
+        <v>0</v>
+      </c>
+      <c r="M127" s="2">
+        <v>26</v>
+      </c>
+      <c r="N127" s="2">
+        <v>0</v>
+      </c>
+      <c r="O127" s="2">
+        <v>0</v>
+      </c>
+      <c r="P127" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>7</v>
+      </c>
+      <c r="R127" t="s">
+        <v>7</v>
+      </c>
+      <c r="S127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" t="s">
+        <v>203</v>
+      </c>
+      <c r="C128" t="s">
+        <v>97</v>
+      </c>
+      <c r="D128" t="s">
+        <v>3</v>
+      </c>
+      <c r="E128" t="s">
+        <v>8</v>
+      </c>
+      <c r="F128" t="s">
+        <v>5</v>
+      </c>
+      <c r="G128" t="s">
+        <v>191</v>
+      </c>
+      <c r="H128" s="2">
+        <v>0</v>
+      </c>
+      <c r="I128" s="2">
+        <v>4</v>
+      </c>
+      <c r="J128" s="2">
+        <v>0</v>
+      </c>
+      <c r="K128" s="2">
+        <v>0</v>
+      </c>
+      <c r="L128" s="2">
+        <v>0</v>
+      </c>
+      <c r="M128" s="2">
+        <v>4</v>
+      </c>
+      <c r="N128" s="2">
+        <v>0</v>
+      </c>
+      <c r="O128" s="2">
+        <v>0</v>
+      </c>
+      <c r="P128" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>7</v>
+      </c>
+      <c r="R128" t="s">
+        <v>7</v>
+      </c>
+      <c r="S128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" t="s">
+        <v>203</v>
+      </c>
+      <c r="C129" t="s">
+        <v>97</v>
+      </c>
+      <c r="D129" t="s">
+        <v>3</v>
+      </c>
+      <c r="E129" t="s">
+        <v>16</v>
+      </c>
+      <c r="F129" t="s">
+        <v>5</v>
+      </c>
+      <c r="G129" t="s">
+        <v>206</v>
+      </c>
+      <c r="H129" s="2">
+        <v>0</v>
+      </c>
+      <c r="I129" s="2">
+        <v>16</v>
+      </c>
+      <c r="J129" s="2">
+        <v>0</v>
+      </c>
+      <c r="K129" s="2">
+        <v>0</v>
+      </c>
+      <c r="L129" s="2">
+        <v>0</v>
+      </c>
+      <c r="M129" s="2">
+        <v>16</v>
+      </c>
+      <c r="N129" s="2">
+        <v>0</v>
+      </c>
+      <c r="O129" s="2">
+        <v>0</v>
+      </c>
+      <c r="P129" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>7</v>
+      </c>
+      <c r="R129" t="s">
+        <v>7</v>
+      </c>
+      <c r="S129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130" t="s">
         <v>207</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C130" t="s">
         <v>208</v>
       </c>
-      <c r="D121" t="s">
-        <v>3</v>
-      </c>
-      <c r="E121" t="s">
+      <c r="D130" t="s">
+        <v>3</v>
+      </c>
+      <c r="E130" t="s">
+        <v>53</v>
+      </c>
+      <c r="F130" t="s">
+        <v>5</v>
+      </c>
+      <c r="G130" t="s">
+        <v>7</v>
+      </c>
+      <c r="H130" s="2">
+        <v>2</v>
+      </c>
+      <c r="I130" s="2">
+        <v>0</v>
+      </c>
+      <c r="J130" s="2">
+        <v>0</v>
+      </c>
+      <c r="K130" s="2">
+        <v>0</v>
+      </c>
+      <c r="L130" s="2">
+        <v>0</v>
+      </c>
+      <c r="M130" s="2">
+        <v>2</v>
+      </c>
+      <c r="N130" s="2">
+        <v>0</v>
+      </c>
+      <c r="O130" s="2">
+        <v>0</v>
+      </c>
+      <c r="P130" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>7</v>
+      </c>
+      <c r="R130" t="s">
+        <v>7</v>
+      </c>
+      <c r="S130" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" t="s">
+        <v>207</v>
+      </c>
+      <c r="C131" t="s">
+        <v>208</v>
+      </c>
+      <c r="D131" t="s">
+        <v>3</v>
+      </c>
+      <c r="E131" t="s">
         <v>4</v>
       </c>
-      <c r="F121" t="s">
-        <v>5</v>
-      </c>
-      <c r="G121" t="s">
+      <c r="F131" t="s">
+        <v>5</v>
+      </c>
+      <c r="G131" t="s">
         <v>209</v>
       </c>
-      <c r="H121" s="2">
-        <v>1</v>
-      </c>
-      <c r="I121" s="2">
-        <v>0</v>
-      </c>
-      <c r="J121" s="2">
-        <v>0</v>
-      </c>
-      <c r="K121" s="2">
-        <v>0</v>
-      </c>
-      <c r="L121" s="2">
-        <v>0</v>
-      </c>
-      <c r="M121" s="2">
-        <v>1</v>
-      </c>
-      <c r="N121" s="2">
-        <v>0</v>
-      </c>
-      <c r="O121" s="2">
-        <v>0</v>
-      </c>
-      <c r="P121" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q121" t="s">
-        <v>7</v>
-      </c>
-      <c r="R121" t="s">
-        <v>7</v>
-      </c>
-      <c r="S121" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H122" s="4">
-        <v>616</v>
-      </c>
-      <c r="I122" s="4">
-        <v>398</v>
-      </c>
-      <c r="J122" s="4">
-        <v>0</v>
-      </c>
-      <c r="K122" s="4">
+      <c r="H131" s="2">
+        <v>1</v>
+      </c>
+      <c r="I131" s="2">
+        <v>0</v>
+      </c>
+      <c r="J131" s="2">
+        <v>0</v>
+      </c>
+      <c r="K131" s="2">
+        <v>0</v>
+      </c>
+      <c r="L131" s="2">
+        <v>0</v>
+      </c>
+      <c r="M131" s="2">
+        <v>1</v>
+      </c>
+      <c r="N131" s="2">
+        <v>0</v>
+      </c>
+      <c r="O131" s="2">
+        <v>0</v>
+      </c>
+      <c r="P131" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>7</v>
+      </c>
+      <c r="R131" t="s">
+        <v>7</v>
+      </c>
+      <c r="S131" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" t="s">
+        <v>207</v>
+      </c>
+      <c r="C132" t="s">
+        <v>208</v>
+      </c>
+      <c r="D132" t="s">
+        <v>3</v>
+      </c>
+      <c r="E132" t="s">
         <v>4</v>
       </c>
-      <c r="L122" s="4">
-        <v>0</v>
-      </c>
-      <c r="M122" s="4">
-        <v>1018</v>
-      </c>
-      <c r="N122" s="4">
-        <v>0</v>
-      </c>
-      <c r="O122" s="4">
-        <v>158</v>
-      </c>
-      <c r="P122" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q122" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="R122" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S122" s="3" t="s">
+      <c r="F132" t="s">
+        <v>71</v>
+      </c>
+      <c r="G132" t="s">
+        <v>209</v>
+      </c>
+      <c r="H132" s="2">
+        <v>2</v>
+      </c>
+      <c r="I132" s="2">
+        <v>0</v>
+      </c>
+      <c r="J132" s="2">
+        <v>0</v>
+      </c>
+      <c r="K132" s="2">
+        <v>0</v>
+      </c>
+      <c r="L132" s="2">
+        <v>0</v>
+      </c>
+      <c r="M132" s="2">
+        <v>2</v>
+      </c>
+      <c r="N132" s="2">
+        <v>0</v>
+      </c>
+      <c r="O132" s="2">
+        <v>0</v>
+      </c>
+      <c r="P132" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>7</v>
+      </c>
+      <c r="R132" t="s">
+        <v>7</v>
+      </c>
+      <c r="S132" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>207</v>
+      </c>
+      <c r="C133" t="s">
+        <v>208</v>
+      </c>
+      <c r="D133" t="s">
+        <v>3</v>
+      </c>
+      <c r="E133" t="s">
+        <v>16</v>
+      </c>
+      <c r="F133" t="s">
+        <v>5</v>
+      </c>
+      <c r="G133" t="s">
+        <v>7</v>
+      </c>
+      <c r="H133" s="2">
+        <v>0</v>
+      </c>
+      <c r="I133" s="2">
+        <v>3</v>
+      </c>
+      <c r="J133" s="2">
+        <v>0</v>
+      </c>
+      <c r="K133" s="2">
+        <v>0</v>
+      </c>
+      <c r="L133" s="2">
+        <v>0</v>
+      </c>
+      <c r="M133" s="2">
+        <v>3</v>
+      </c>
+      <c r="N133" s="2">
+        <v>0</v>
+      </c>
+      <c r="O133" s="2">
+        <v>0</v>
+      </c>
+      <c r="P133" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>7</v>
+      </c>
+      <c r="R133" t="s">
+        <v>7</v>
+      </c>
+      <c r="S133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H134" s="4">
+        <v>3167</v>
+      </c>
+      <c r="I134" s="4">
+        <v>2066</v>
+      </c>
+      <c r="J134" s="4">
+        <v>0</v>
+      </c>
+      <c r="K134" s="4">
+        <v>16</v>
+      </c>
+      <c r="L134" s="4">
+        <v>0</v>
+      </c>
+      <c r="M134" s="4">
+        <v>5249</v>
+      </c>
+      <c r="N134" s="4">
+        <v>0</v>
+      </c>
+      <c r="O134" s="4">
+        <v>123</v>
+      </c>
+      <c r="P134" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q134" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R134" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S134" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8362,15 +9062,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100C4D4C92C1AD0124FAEA2CE549EB47725" ma:contentTypeVersion="14" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="f234a2db794dc5e909fa783abeb6acd3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="650b17bc-3d2f-4f7f-90ed-91d7c74cb221" xmlns:ns3="061e156a-84b8-4e44-9cf1-0142f791148d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="76fd6f4e70c0f14c21b6ef04a53ebb13" ns2:_="" ns3:_="">
     <xsd:import namespace="650b17bc-3d2f-4f7f-90ed-91d7c74cb221"/>
@@ -8599,6 +9290,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -8611,17 +9311,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1087B0E0-711F-4C24-9CE5-1A2C9D89EFFA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E653B6F0-5111-441B-BD49-CF89E8F19D09}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{243399CB-559B-4DC2-A38D-73C98EA8CBC5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C19D31-D3AA-4A7E-BFE0-6AFA3964B248}"/>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A80BC4AE-D2EE-48D4-81CA-46A880FD3764}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D4F3922-37E8-4A9F-BBAD-079A61812929}"/>
 </file>